--- a/script/WrongFormatData.xlsx
+++ b/script/WrongFormatData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>Num_ID</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>Loan_Date</t>
+  </si>
+  <si>
+    <t>Subspecies</t>
+  </si>
+  <si>
+    <t>Subspecies_descriptor</t>
   </si>
   <si>
     <t>Genus_Date</t>
@@ -515,13 +521,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB6"/>
+  <dimension ref="A1:AD6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -606,132 +612,138 @@
       <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:30">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y2">
+        <v>47</v>
+      </c>
+      <c r="AA2">
         <v>1912</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:30">
       <c r="A3">
         <v>985</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="V3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:30">
       <c r="A4">
         <v>986</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:30">
       <c r="A5">
         <v>987</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:30">
       <c r="A6">
         <v>4145</v>
       </c>
       <c r="V6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
